--- a/Python/output/case-study/trans-SA-FA-KPI-1.xlsx
+++ b/Python/output/case-study/trans-SA-FA-KPI-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFCBA9C-7BDD-A64E-A3C1-779142BC0B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14480" yWindow="2920" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="660" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="penalty-SA-FA-KPI-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -899,11 +898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,44 +923,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="B2">
-        <v>55998.104169000202</v>
+        <v>88924.074024154499</v>
       </c>
       <c r="C2">
-        <v>45924.860067405403</v>
+        <v>61510.287898985996</v>
       </c>
       <c r="D2">
-        <v>854.82306017610699</v>
+        <v>179.96238143455</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B3">
-        <v>62237.1473834629</v>
+        <v>87646.622636007596</v>
       </c>
       <c r="C3">
-        <v>57167.626047763297</v>
+        <v>60264.573801184903</v>
       </c>
       <c r="D3">
-        <v>351.74452509743298</v>
+        <v>211.69967177987201</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>85104.733203326701</v>
+      </c>
+      <c r="C4">
+        <v>57788.213950614001</v>
+      </c>
+      <c r="D4">
+        <v>277.22925389091398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>67247.824988271896</v>
-      </c>
-      <c r="C4">
-        <v>65586.874699341904</v>
-      </c>
-      <c r="D4">
-        <v>153.735068768806</v>
+      <c r="B5">
+        <v>80744.775875134001</v>
+      </c>
+      <c r="C5">
+        <v>53562.463715507598</v>
+      </c>
+      <c r="D5">
+        <v>411.43634697693301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>75683.053847636693</v>
+      </c>
+      <c r="C6">
+        <v>48747.494175761502</v>
+      </c>
+      <c r="D6">
+        <v>658.18883472863001</v>
       </c>
     </row>
   </sheetData>
